--- a/db/MoleWeights.xlsx
+++ b/db/MoleWeights.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Stuff\Yale\MORedox_2023\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elars\Desktop\Yale School Stuff\EPS 529 - Geodynamics\From desktop\MORedox_2023_v2\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F72455-6B6C-454E-9A35-CB4891C94CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E88B4-9E5E-4819-AED7-7A69F0B981AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="1890" windowWidth="17565" windowHeight="12330" activeTab="2" xr2:uid="{47A84D43-22DB-204C-98DE-F7496EE65383}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="2" xr2:uid="{47A84D43-22DB-204C-98DE-F7496EE65383}"/>
   </bookViews>
   <sheets>
     <sheet name="Deng20" sheetId="1" r:id="rId1"/>
-    <sheet name="Armstrong19" sheetId="2" r:id="rId2"/>
-    <sheet name="Hirsch22" sheetId="3" r:id="rId3"/>
+    <sheet name="EarthEarly" sheetId="4" r:id="rId2"/>
+    <sheet name="EarthLate" sheetId="7" r:id="rId3"/>
+    <sheet name="ImpEarly" sheetId="5" r:id="rId4"/>
+    <sheet name="ImpLate" sheetId="6" r:id="rId5"/>
+    <sheet name="Armstrong19" sheetId="2" r:id="rId6"/>
+    <sheet name="Hirsch22" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="18">
   <si>
     <t>SiO2</t>
   </si>
@@ -444,12 +448,12 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="A1:XFD1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -460,12 +464,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>45.49</v>
       </c>
       <c r="C2">
         <v>60.073499999999996</v>
@@ -474,7 +478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -488,7 +492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -499,7 +503,7 @@
         <v>50.971000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -510,18 +514,18 @@
         <v>75.986999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.0500000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="C6">
         <v>71.838999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -532,7 +536,7 @@
         <v>70.932000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -543,7 +547,7 @@
         <v>40.298999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -554,7 +558,7 @@
         <v>58.9634</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -565,7 +569,7 @@
         <v>56.072000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -576,7 +580,7 @@
         <v>30.986799999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -587,7 +591,7 @@
         <v>47.094999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -604,6 +608,640 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581EC8AC-69E9-401A-A66F-7E71B38645AD}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>100-SUM(B3:B13)</f>
+        <v>53.39</v>
+      </c>
+      <c r="C2">
+        <v>60.073499999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>79.055000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.45</v>
+      </c>
+      <c r="C4">
+        <v>50.971000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>75.986999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>71.838999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.932000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C8">
+        <v>40.298999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>58.9634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3.55</v>
+      </c>
+      <c r="C10">
+        <v>56.072000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.36</v>
+      </c>
+      <c r="C11">
+        <v>30.986799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>47.094999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>70.959000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A921F10-46BC-4155-A64F-34FE739E62CD}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>100-SUM(B3:B13)</f>
+        <v>45.49</v>
+      </c>
+      <c r="C2">
+        <v>60.073499999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>79.055000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.45</v>
+      </c>
+      <c r="C4">
+        <v>50.971000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>75.986999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8.1</v>
+      </c>
+      <c r="C6">
+        <v>71.838999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.932000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C8">
+        <v>40.298999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>58.9634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3.55</v>
+      </c>
+      <c r="C10">
+        <v>56.072000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.36</v>
+      </c>
+      <c r="C11">
+        <v>30.986799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>47.094999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>70.959000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43329061-6CEB-4DB0-96A3-23976A043392}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>48.2</v>
+      </c>
+      <c r="C2">
+        <v>60.073499999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>79.055000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C4">
+        <v>50.971000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>75.986999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.91</v>
+      </c>
+      <c r="C6">
+        <v>71.838999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.932000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>41.62</v>
+      </c>
+      <c r="C8">
+        <v>40.298999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>58.9634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C10">
+        <v>56.072000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>30.986799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>47.094999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>70.959000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E9A9B5-4386-458B-AE93-B3C4EE583230}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="A15:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>44.83</v>
+      </c>
+      <c r="C2">
+        <v>60.073499999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>79.055000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.84</v>
+      </c>
+      <c r="C4">
+        <v>50.971000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>75.986999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C6">
+        <v>71.838999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.932000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>31.29</v>
+      </c>
+      <c r="C8">
+        <v>40.298999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>58.9634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3.12</v>
+      </c>
+      <c r="C10">
+        <v>56.072000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>30.986799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>47.094999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>70.959000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F6B0B9-3302-493B-9F61-2729263CC03A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -611,9 +1249,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -624,7 +1262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -638,7 +1276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -652,7 +1290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -663,7 +1301,7 @@
         <v>50.971000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -674,7 +1312,7 @@
         <v>75.986999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -685,7 +1323,7 @@
         <v>71.838999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -696,7 +1334,7 @@
         <v>70.932000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -707,7 +1345,7 @@
         <v>40.298999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -718,7 +1356,7 @@
         <v>58.9634</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -729,7 +1367,7 @@
         <v>56.072000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -740,7 +1378,7 @@
         <v>30.986799999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -751,7 +1389,7 @@
         <v>47.094999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -767,21 +1405,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5146B3F2-5D51-4479-B498-CD00EDF9B2C3}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -792,7 +1430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -803,7 +1441,7 @@
         <v>60.073499999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -814,7 +1452,7 @@
         <v>79.055000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -825,7 +1463,7 @@
         <v>50.971000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -836,7 +1474,7 @@
         <v>75.986999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -847,7 +1485,7 @@
         <v>71.838999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -858,7 +1496,7 @@
         <v>70.932000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -869,7 +1507,7 @@
         <v>40.298999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -880,7 +1518,7 @@
         <v>58.9634</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -891,7 +1529,7 @@
         <v>56.072000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -902,7 +1540,7 @@
         <v>30.986799999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -913,7 +1551,7 @@
         <v>47.094999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>

--- a/db/MoleWeights.xlsx
+++ b/db/MoleWeights.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elars\Desktop\Yale School Stuff\EPS 529 - Geodynamics\From desktop\MORedox_2023_v2\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elars\Desktop\Yale School Stuff\EPS 529 - Geodynamics\Project continued\MORedox_2023_v3\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E88B4-9E5E-4819-AED7-7A69F0B981AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01358BB-08D5-48A0-98AE-843DC7CB70DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="2" xr2:uid="{47A84D43-22DB-204C-98DE-F7496EE65383}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{47A84D43-22DB-204C-98DE-F7496EE65383}"/>
   </bookViews>
   <sheets>
     <sheet name="Deng20" sheetId="1" r:id="rId1"/>
-    <sheet name="EarthEarly" sheetId="4" r:id="rId2"/>
-    <sheet name="EarthLate" sheetId="7" r:id="rId3"/>
-    <sheet name="ImpEarly" sheetId="5" r:id="rId4"/>
-    <sheet name="ImpLate" sheetId="6" r:id="rId5"/>
-    <sheet name="Armstrong19" sheetId="2" r:id="rId6"/>
-    <sheet name="Hirsch22" sheetId="3" r:id="rId7"/>
+    <sheet name="Armstrong19" sheetId="2" r:id="rId2"/>
+    <sheet name="Hirsch22" sheetId="3" r:id="rId3"/>
+    <sheet name="Rubie11" sheetId="11" r:id="rId4"/>
+    <sheet name="EarthEarly" sheetId="4" r:id="rId5"/>
+    <sheet name="EarthLate" sheetId="7" r:id="rId6"/>
+    <sheet name="ImpEarly" sheetId="5" r:id="rId7"/>
+    <sheet name="ImpLate" sheetId="6" r:id="rId8"/>
+    <sheet name="metal" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="31">
   <si>
     <t>SiO2</t>
   </si>
@@ -95,13 +97,60 @@
   <si>
     <t>% weight as given in Armstrong19 in Hirschmann2022 Suppl material</t>
   </si>
+  <si>
+    <t>mol weight per metal ion</t>
+  </si>
+  <si>
+    <t>Mass Frac</t>
+  </si>
+  <si>
+    <t>wt %</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>mol wt</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>moles</t>
+  </si>
+  <si>
+    <t>mol frac</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,8 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D605C485-1DC2-CE40-93E0-F6D4262E732D}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -461,6 +511,9 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -473,6 +526,9 @@
       </c>
       <c r="C2">
         <v>60.073499999999996</v>
+      </c>
+      <c r="D2">
+        <v>60.084000000000003</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -488,6 +544,9 @@
       <c r="C3">
         <v>79.055000000000007</v>
       </c>
+      <c r="D3">
+        <v>79.864999999999995</v>
+      </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
@@ -502,6 +561,9 @@
       <c r="C4">
         <v>50.971000000000004</v>
       </c>
+      <c r="D4">
+        <v>101.961</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -513,6 +575,9 @@
       <c r="C5">
         <v>75.986999999999995</v>
       </c>
+      <c r="D5">
+        <v>151.989</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -524,6 +589,9 @@
       <c r="C6">
         <v>71.838999999999999</v>
       </c>
+      <c r="D6">
+        <v>71.843999999999994</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -535,6 +603,9 @@
       <c r="C7">
         <v>70.932000000000002</v>
       </c>
+      <c r="D7">
+        <v>70.936999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -546,6 +617,9 @@
       <c r="C8">
         <v>40.298999999999999</v>
       </c>
+      <c r="D8">
+        <v>40.304000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -557,6 +631,9 @@
       <c r="C9">
         <v>58.9634</v>
       </c>
+      <c r="D9">
+        <v>74.691999999999993</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -568,6 +645,9 @@
       <c r="C10">
         <v>56.072000000000003</v>
       </c>
+      <c r="D10">
+        <v>56.076999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -579,6 +659,9 @@
       <c r="C11">
         <v>30.986799999999999</v>
       </c>
+      <c r="D11">
+        <v>61.972000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -590,6 +673,9 @@
       <c r="C12">
         <v>47.094999999999999</v>
       </c>
+      <c r="D12">
+        <v>94.194999999999993</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -600,6 +686,9 @@
       </c>
       <c r="C13">
         <v>70.959000000000003</v>
+      </c>
+      <c r="D13">
+        <v>141.94300000000001</v>
       </c>
     </row>
   </sheetData>
@@ -608,640 +697,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581EC8AC-69E9-401A-A66F-7E71B38645AD}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>100-SUM(B3:B13)</f>
-        <v>53.39</v>
-      </c>
-      <c r="C2">
-        <v>60.073499999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>79.055000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4.45</v>
-      </c>
-      <c r="C4">
-        <v>50.971000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>75.986999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.2</v>
-      </c>
-      <c r="C6">
-        <v>71.838999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>70.932000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="C8">
-        <v>40.298999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>58.9634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>3.55</v>
-      </c>
-      <c r="C10">
-        <v>56.072000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0.36</v>
-      </c>
-      <c r="C11">
-        <v>30.986799999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C12">
-        <v>47.094999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C13">
-        <v>70.959000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A921F10-46BC-4155-A64F-34FE739E62CD}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>100-SUM(B3:B13)</f>
-        <v>45.49</v>
-      </c>
-      <c r="C2">
-        <v>60.073499999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>79.055000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4.45</v>
-      </c>
-      <c r="C4">
-        <v>50.971000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>75.986999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>8.1</v>
-      </c>
-      <c r="C6">
-        <v>71.838999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>70.932000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="C8">
-        <v>40.298999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>58.9634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>3.55</v>
-      </c>
-      <c r="C10">
-        <v>56.072000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0.36</v>
-      </c>
-      <c r="C11">
-        <v>30.986799999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C12">
-        <v>47.094999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C13">
-        <v>70.959000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43329061-6CEB-4DB0-96A3-23976A043392}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>48.2</v>
-      </c>
-      <c r="C2">
-        <v>60.073499999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>79.055000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="C4">
-        <v>50.971000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>75.986999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.91</v>
-      </c>
-      <c r="C6">
-        <v>71.838999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>70.932000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>41.62</v>
-      </c>
-      <c r="C8">
-        <v>40.298999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>58.9634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C10">
-        <v>56.072000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>30.986799999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>47.094999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>70.959000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E9A9B5-4386-458B-AE93-B3C4EE583230}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A15:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>44.83</v>
-      </c>
-      <c r="C2">
-        <v>60.073499999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>79.055000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3.84</v>
-      </c>
-      <c r="C4">
-        <v>50.971000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>75.986999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="C6">
-        <v>71.838999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>70.932000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>31.29</v>
-      </c>
-      <c r="C8">
-        <v>40.298999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>58.9634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>3.12</v>
-      </c>
-      <c r="C10">
-        <v>56.072000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>30.986799999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>47.094999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>70.959000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F6B0B9-3302-493B-9F61-2729263CC03A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -1405,12 +860,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5146B3F2-5D51-4479-B498-CD00EDF9B2C3}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -1565,4 +1020,2011 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03CE06D-D7F7-4E9B-AFF4-E70EE4FFB40E}">
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>60.084</f>
+        <v>60.084000000000003</v>
+      </c>
+      <c r="C2">
+        <v>60.084000000000003</v>
+      </c>
+      <c r="D2">
+        <v>48.61</v>
+      </c>
+      <c r="E2">
+        <v>48.66</v>
+      </c>
+      <c r="F2">
+        <v>48.67</v>
+      </c>
+      <c r="G2">
+        <v>48.67</v>
+      </c>
+      <c r="H2">
+        <v>48.66</v>
+      </c>
+      <c r="I2">
+        <v>48.64</v>
+      </c>
+      <c r="J2">
+        <v>48.62</v>
+      </c>
+      <c r="K2">
+        <v>48.59</v>
+      </c>
+      <c r="L2">
+        <v>48.55</v>
+      </c>
+      <c r="M2">
+        <v>48.5</v>
+      </c>
+      <c r="N2">
+        <v>48.43</v>
+      </c>
+      <c r="O2">
+        <v>48.3</v>
+      </c>
+      <c r="P2">
+        <v>48.17</v>
+      </c>
+      <c r="Q2">
+        <v>48.04</v>
+      </c>
+      <c r="R2">
+        <v>47.88</v>
+      </c>
+      <c r="S2">
+        <v>47.69</v>
+      </c>
+      <c r="T2">
+        <v>47.47</v>
+      </c>
+      <c r="U2">
+        <v>47.2</v>
+      </c>
+      <c r="V2">
+        <v>46.98</v>
+      </c>
+      <c r="W2">
+        <v>46.82</v>
+      </c>
+      <c r="X2">
+        <v>46.42</v>
+      </c>
+      <c r="Y2">
+        <v>46.18</v>
+      </c>
+      <c r="Z2">
+        <v>46</v>
+      </c>
+      <c r="AA2">
+        <v>45.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>79.865</f>
+        <v>79.864999999999995</v>
+      </c>
+      <c r="C3">
+        <v>79.864999999999995</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>C4/2</f>
+        <v>50.980499999999999</v>
+      </c>
+      <c r="C4">
+        <v>101.961</v>
+      </c>
+      <c r="D4">
+        <v>5.13</v>
+      </c>
+      <c r="E4">
+        <v>5.13</v>
+      </c>
+      <c r="F4">
+        <v>5.13</v>
+      </c>
+      <c r="G4">
+        <v>5.13</v>
+      </c>
+      <c r="H4">
+        <v>5.13</v>
+      </c>
+      <c r="I4">
+        <v>5.13</v>
+      </c>
+      <c r="J4">
+        <v>5.13</v>
+      </c>
+      <c r="K4">
+        <v>5.13</v>
+      </c>
+      <c r="L4">
+        <v>5.12</v>
+      </c>
+      <c r="M4">
+        <v>5.12</v>
+      </c>
+      <c r="N4">
+        <v>5.12</v>
+      </c>
+      <c r="O4">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="P4">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Q4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S4">
+        <v>5.09</v>
+      </c>
+      <c r="T4">
+        <v>5.09</v>
+      </c>
+      <c r="U4">
+        <v>5.08</v>
+      </c>
+      <c r="V4">
+        <v>5.08</v>
+      </c>
+      <c r="W4">
+        <v>5.07</v>
+      </c>
+      <c r="X4">
+        <v>4.92</v>
+      </c>
+      <c r="Y4">
+        <v>4.8</v>
+      </c>
+      <c r="Z4">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="AA4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>C5/2</f>
+        <v>75.994500000000002</v>
+      </c>
+      <c r="C5">
+        <v>151.989</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>71.843999999999994</v>
+      </c>
+      <c r="C6">
+        <v>71.843999999999994</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>0.23</v>
+      </c>
+      <c r="F6">
+        <v>0.23</v>
+      </c>
+      <c r="G6">
+        <v>0.23</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.32</v>
+      </c>
+      <c r="K6">
+        <v>0.36</v>
+      </c>
+      <c r="L6">
+        <v>0.41</v>
+      </c>
+      <c r="M6">
+        <v>0.49</v>
+      </c>
+      <c r="N6">
+        <v>0.59</v>
+      </c>
+      <c r="O6">
+        <v>0.77</v>
+      </c>
+      <c r="P6">
+        <v>0.93</v>
+      </c>
+      <c r="Q6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R6">
+        <v>1.29</v>
+      </c>
+      <c r="S6">
+        <v>1.52</v>
+      </c>
+      <c r="T6">
+        <v>1.78</v>
+      </c>
+      <c r="U6">
+        <v>2.08</v>
+      </c>
+      <c r="V6">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="W6">
+        <v>2.5</v>
+      </c>
+      <c r="X6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y6">
+        <v>5.8</v>
+      </c>
+      <c r="Z6">
+        <v>7.02</v>
+      </c>
+      <c r="AA6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>70.936999999999998</v>
+      </c>
+      <c r="C7">
+        <v>70.936999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>40.304000000000002</v>
+      </c>
+      <c r="C8">
+        <v>40.304000000000002</v>
+      </c>
+      <c r="D8">
+        <v>41.79</v>
+      </c>
+      <c r="E8">
+        <v>41.8</v>
+      </c>
+      <c r="F8">
+        <v>41.8</v>
+      </c>
+      <c r="G8">
+        <v>41.8</v>
+      </c>
+      <c r="H8">
+        <v>41.79</v>
+      </c>
+      <c r="I8">
+        <v>41.78</v>
+      </c>
+      <c r="J8">
+        <v>41.77</v>
+      </c>
+      <c r="K8">
+        <v>41.75</v>
+      </c>
+      <c r="L8">
+        <v>41.74</v>
+      </c>
+      <c r="M8">
+        <v>41.72</v>
+      </c>
+      <c r="N8">
+        <v>41.7</v>
+      </c>
+      <c r="O8">
+        <v>41.66</v>
+      </c>
+      <c r="P8">
+        <v>41.62</v>
+      </c>
+      <c r="Q8">
+        <v>41.58</v>
+      </c>
+      <c r="R8">
+        <v>41.54</v>
+      </c>
+      <c r="S8">
+        <v>41.49</v>
+      </c>
+      <c r="T8">
+        <v>41.45</v>
+      </c>
+      <c r="U8">
+        <v>41.39</v>
+      </c>
+      <c r="V8">
+        <v>41.34</v>
+      </c>
+      <c r="W8">
+        <v>41.3</v>
+      </c>
+      <c r="X8">
+        <v>40.04</v>
+      </c>
+      <c r="Y8">
+        <v>39.08</v>
+      </c>
+      <c r="Z8">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="AA8">
+        <v>37.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>74.691999999999993</v>
+      </c>
+      <c r="C9">
+        <v>74.691999999999993</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.1</v>
+      </c>
+      <c r="X9">
+        <v>0.1</v>
+      </c>
+      <c r="Y9">
+        <v>0.1</v>
+      </c>
+      <c r="Z9">
+        <v>0.2</v>
+      </c>
+      <c r="AA9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>56.076999999999998</v>
+      </c>
+      <c r="C10">
+        <v>56.076999999999998</v>
+      </c>
+      <c r="D10">
+        <v>4.17</v>
+      </c>
+      <c r="E10">
+        <v>4.17</v>
+      </c>
+      <c r="F10">
+        <v>4.17</v>
+      </c>
+      <c r="G10">
+        <v>4.17</v>
+      </c>
+      <c r="H10">
+        <v>4.17</v>
+      </c>
+      <c r="I10">
+        <v>4.17</v>
+      </c>
+      <c r="J10">
+        <v>4.17</v>
+      </c>
+      <c r="K10">
+        <v>4.17</v>
+      </c>
+      <c r="L10">
+        <v>4.17</v>
+      </c>
+      <c r="M10">
+        <v>4.16</v>
+      </c>
+      <c r="N10">
+        <v>4.16</v>
+      </c>
+      <c r="O10">
+        <v>4.16</v>
+      </c>
+      <c r="P10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="R10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="S10">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="T10">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="U10">
+        <v>4.13</v>
+      </c>
+      <c r="V10">
+        <v>4.13</v>
+      </c>
+      <c r="W10">
+        <v>4.12</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>3.9</v>
+      </c>
+      <c r="Z10">
+        <v>3.82</v>
+      </c>
+      <c r="AA10">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f>C11/2</f>
+        <v>30.986000000000001</v>
+      </c>
+      <c r="C11">
+        <v>61.972000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f>C12/2</f>
+        <v>47.097499999999997</v>
+      </c>
+      <c r="C12">
+        <v>94.194999999999993</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f>C13/2</f>
+        <v>70.971500000000006</v>
+      </c>
+      <c r="C13">
+        <v>141.94300000000001</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>0.11</v>
+      </c>
+      <c r="E14">
+        <v>0.12</v>
+      </c>
+      <c r="F14">
+        <v>0.13</v>
+      </c>
+      <c r="G14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.15</v>
+      </c>
+      <c r="I14">
+        <v>0.17</v>
+      </c>
+      <c r="J14">
+        <v>0.19</v>
+      </c>
+      <c r="K14">
+        <v>0.21</v>
+      </c>
+      <c r="L14">
+        <v>0.23</v>
+      </c>
+      <c r="M14">
+        <v>0.25</v>
+      </c>
+      <c r="N14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O14">
+        <v>0.31</v>
+      </c>
+      <c r="P14">
+        <v>0.34</v>
+      </c>
+      <c r="Q14">
+        <v>0.37</v>
+      </c>
+      <c r="R14">
+        <v>0.41</v>
+      </c>
+      <c r="S14">
+        <v>0.45</v>
+      </c>
+      <c r="T14">
+        <v>0.5</v>
+      </c>
+      <c r="U14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V14">
+        <v>0.61</v>
+      </c>
+      <c r="W14">
+        <v>0.67</v>
+      </c>
+      <c r="X14">
+        <v>0.74</v>
+      </c>
+      <c r="Y14">
+        <v>0.81</v>
+      </c>
+      <c r="Z14">
+        <v>0.89</v>
+      </c>
+      <c r="AA14">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581EC8AC-69E9-401A-A66F-7E71B38645AD}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>100-SUM(B3:B13)</f>
+        <v>53.39</v>
+      </c>
+      <c r="C2">
+        <v>60.073499999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>79.055000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.45</v>
+      </c>
+      <c r="C4">
+        <v>50.971000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>75.986999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>71.838999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.932000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C8">
+        <v>40.298999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>58.9634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3.55</v>
+      </c>
+      <c r="C10">
+        <v>56.072000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.36</v>
+      </c>
+      <c r="C11">
+        <v>30.986799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>47.094999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>70.959000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A921F10-46BC-4155-A64F-34FE739E62CD}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>100-SUM(B3:B13)</f>
+        <v>45.49</v>
+      </c>
+      <c r="C2">
+        <v>60.073499999999996</v>
+      </c>
+      <c r="D2">
+        <v>60.084000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>79.055000000000007</v>
+      </c>
+      <c r="D3">
+        <v>79.864999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.45</v>
+      </c>
+      <c r="C4">
+        <v>50.971000000000004</v>
+      </c>
+      <c r="D4">
+        <v>101.961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>75.986999999999995</v>
+      </c>
+      <c r="D5">
+        <v>151.989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8.1</v>
+      </c>
+      <c r="C6">
+        <v>71.838999999999999</v>
+      </c>
+      <c r="D6">
+        <v>71.843999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.932000000000002</v>
+      </c>
+      <c r="D7">
+        <v>70.936999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C8">
+        <v>40.298999999999999</v>
+      </c>
+      <c r="D8">
+        <v>40.304000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>58.9634</v>
+      </c>
+      <c r="D9">
+        <v>74.691999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3.55</v>
+      </c>
+      <c r="C10">
+        <v>56.072000000000003</v>
+      </c>
+      <c r="D10">
+        <v>56.076999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.36</v>
+      </c>
+      <c r="C11">
+        <v>30.986799999999999</v>
+      </c>
+      <c r="D11">
+        <v>61.972000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>47.094999999999999</v>
+      </c>
+      <c r="D12">
+        <v>94.194999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>70.959000000000003</v>
+      </c>
+      <c r="D13">
+        <v>141.94300000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43329061-6CEB-4DB0-96A3-23976A043392}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>48.26</v>
+      </c>
+      <c r="C2">
+        <f>60.084</f>
+        <v>60.084000000000003</v>
+      </c>
+      <c r="D2">
+        <v>60.084000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>79.865</f>
+        <v>79.864999999999995</v>
+      </c>
+      <c r="D3">
+        <v>79.864999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C4">
+        <f>D4/2</f>
+        <v>50.980499999999999</v>
+      </c>
+      <c r="D4">
+        <v>101.961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>D5/2</f>
+        <v>75.994500000000002</v>
+      </c>
+      <c r="D5">
+        <v>151.989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.83</v>
+      </c>
+      <c r="C6">
+        <v>71.843999999999994</v>
+      </c>
+      <c r="D6">
+        <v>71.843999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.936999999999998</v>
+      </c>
+      <c r="D7">
+        <v>70.936999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>41.64</v>
+      </c>
+      <c r="C8">
+        <v>40.304000000000002</v>
+      </c>
+      <c r="D8">
+        <v>40.304000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>74.691999999999993</v>
+      </c>
+      <c r="D9">
+        <v>74.691999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>4.16</v>
+      </c>
+      <c r="C10">
+        <v>56.076999999999998</v>
+      </c>
+      <c r="D10">
+        <v>56.076999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>D11/2</f>
+        <v>30.986000000000001</v>
+      </c>
+      <c r="D11">
+        <v>61.972000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>D12/2</f>
+        <v>47.097499999999997</v>
+      </c>
+      <c r="D12">
+        <v>94.194999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>D13/2</f>
+        <v>70.971500000000006</v>
+      </c>
+      <c r="D13">
+        <v>141.94300000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E9A9B5-4386-458B-AE93-B3C4EE583230}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>44.79</v>
+      </c>
+      <c r="C2">
+        <f>60.084</f>
+        <v>60.084000000000003</v>
+      </c>
+      <c r="D2">
+        <v>60.084000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>79.865</f>
+        <v>79.864999999999995</v>
+      </c>
+      <c r="D3">
+        <v>79.864999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.84</v>
+      </c>
+      <c r="C4">
+        <f>D4/2</f>
+        <v>50.980499999999999</v>
+      </c>
+      <c r="D4">
+        <v>101.961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>D5/2</f>
+        <v>75.994500000000002</v>
+      </c>
+      <c r="D5">
+        <v>151.989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="C6">
+        <v>71.843999999999994</v>
+      </c>
+      <c r="D6">
+        <v>71.843999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.936999999999998</v>
+      </c>
+      <c r="D7">
+        <v>70.936999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>31.26</v>
+      </c>
+      <c r="C8">
+        <v>40.304000000000002</v>
+      </c>
+      <c r="D8">
+        <v>40.304000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>74.691999999999993</v>
+      </c>
+      <c r="D9">
+        <v>74.691999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3.12</v>
+      </c>
+      <c r="C10">
+        <v>56.076999999999998</v>
+      </c>
+      <c r="D10">
+        <v>56.076999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>D11/2</f>
+        <v>30.986000000000001</v>
+      </c>
+      <c r="D11">
+        <v>61.972000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>D12/2</f>
+        <v>47.097499999999997</v>
+      </c>
+      <c r="D12">
+        <v>94.194999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>D13/2</f>
+        <v>70.971500000000006</v>
+      </c>
+      <c r="D13">
+        <v>141.94300000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D74315-7BB2-43C4-85AC-12998C31C28C}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>85.59</v>
+      </c>
+      <c r="C2">
+        <v>55.844999999999999</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D7" si="0">B2/C2</f>
+        <v>1.5326349717969381</v>
+      </c>
+      <c r="E2">
+        <f>D2/D8</f>
+        <v>0.78480823270641153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>58.692999999999998</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>8.5189034467483354E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>58.933</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>15.99</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <f>100-B2-B3</f>
+        <v>9.4099999999999966</v>
+      </c>
+      <c r="C6">
+        <v>28.085000000000001</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.33505429944810383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>51.996000000000002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8">
+        <f>SUM(D2:D7)</f>
+        <v>1.9528783057125252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/db/MoleWeights.xlsx
+++ b/db/MoleWeights.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elars\Desktop\Yale School Stuff\EPS 529 - Geodynamics\Project continued\MORedox_2023_v3\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01358BB-08D5-48A0-98AE-843DC7CB70DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ED738B-0B9A-4215-9ABD-9D92BEFDB704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{47A84D43-22DB-204C-98DE-F7496EE65383}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="5" xr2:uid="{47A84D43-22DB-204C-98DE-F7496EE65383}"/>
   </bookViews>
   <sheets>
-    <sheet name="Deng20" sheetId="1" r:id="rId1"/>
-    <sheet name="Armstrong19" sheetId="2" r:id="rId2"/>
-    <sheet name="Hirsch22" sheetId="3" r:id="rId3"/>
-    <sheet name="Rubie11" sheetId="11" r:id="rId4"/>
-    <sheet name="EarthEarly" sheetId="4" r:id="rId5"/>
-    <sheet name="EarthLate" sheetId="7" r:id="rId6"/>
-    <sheet name="ImpEarly" sheetId="5" r:id="rId7"/>
-    <sheet name="ImpLate" sheetId="6" r:id="rId8"/>
-    <sheet name="metal" sheetId="12" r:id="rId9"/>
+    <sheet name="Rubie11_Emantle" sheetId="11" r:id="rId1"/>
+    <sheet name="Rubie11_Ecore" sheetId="13" r:id="rId2"/>
+    <sheet name="ImpEarly_mantle" sheetId="5" r:id="rId3"/>
+    <sheet name="ImpEarly_core" sheetId="15" r:id="rId4"/>
+    <sheet name="ImpLate_mantle" sheetId="6" r:id="rId5"/>
+    <sheet name="ImpLate_core" sheetId="14" r:id="rId6"/>
+    <sheet name="metal" sheetId="12" r:id="rId7"/>
+    <sheet name="Deng20" sheetId="1" r:id="rId8"/>
+    <sheet name="Armstrong19" sheetId="2" r:id="rId9"/>
+    <sheet name="Hirsch22" sheetId="3" r:id="rId10"/>
+    <sheet name="EarthEarly" sheetId="4" r:id="rId11"/>
+    <sheet name="EarthLate" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="34">
   <si>
     <t>SiO2</t>
   </si>
@@ -136,6 +139,15 @@
   <si>
     <t>mol frac</t>
   </si>
+  <si>
+    <t>Core mass</t>
+  </si>
+  <si>
+    <t>wt%</t>
+  </si>
+  <si>
+    <t>mole frac</t>
+  </si>
 </sst>
 </file>
 
@@ -199,9 +211,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -239,7 +251,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -345,7 +357,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,208 +499,1114 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D605C485-1DC2-CE40-93E0-F6D4262E732D}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03CE06D-D7F7-4E9B-AFF4-E70EE4FFB40E}">
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45.49</v>
+        <f>60.084</f>
+        <v>60.084000000000003</v>
       </c>
       <c r="C2">
-        <v>60.073499999999996</v>
+        <v>60.084000000000003</v>
       </c>
       <c r="D2">
-        <v>60.084000000000003</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>48.61</v>
+      </c>
+      <c r="E2">
+        <v>48.66</v>
+      </c>
+      <c r="F2">
+        <v>48.67</v>
+      </c>
+      <c r="G2">
+        <v>48.67</v>
+      </c>
+      <c r="H2">
+        <v>48.66</v>
+      </c>
+      <c r="I2">
+        <v>48.64</v>
+      </c>
+      <c r="J2">
+        <v>48.62</v>
+      </c>
+      <c r="K2">
+        <v>48.59</v>
+      </c>
+      <c r="L2">
+        <v>48.55</v>
+      </c>
+      <c r="M2">
+        <v>48.5</v>
+      </c>
+      <c r="N2">
+        <v>48.43</v>
+      </c>
+      <c r="O2">
+        <v>48.3</v>
+      </c>
+      <c r="P2">
+        <v>48.17</v>
+      </c>
+      <c r="Q2">
+        <v>48.04</v>
+      </c>
+      <c r="R2">
+        <v>47.88</v>
+      </c>
+      <c r="S2">
+        <v>47.69</v>
+      </c>
+      <c r="T2">
+        <v>47.47</v>
+      </c>
+      <c r="U2">
+        <v>47.2</v>
+      </c>
+      <c r="V2">
+        <v>46.98</v>
+      </c>
+      <c r="W2">
+        <v>46.82</v>
+      </c>
+      <c r="X2">
+        <v>46.42</v>
+      </c>
+      <c r="Y2">
+        <v>46.18</v>
+      </c>
+      <c r="Z2">
+        <v>46</v>
+      </c>
+      <c r="AA2">
+        <v>45.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <f>79.865</f>
+        <v>79.864999999999995</v>
       </c>
       <c r="C3">
-        <v>79.055000000000007</v>
+        <v>79.864999999999995</v>
       </c>
       <c r="D3">
-        <v>79.864999999999995</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.45</v>
+        <f>C4/2</f>
+        <v>50.980499999999999</v>
       </c>
       <c r="C4">
-        <v>50.971000000000004</v>
+        <v>101.961</v>
       </c>
       <c r="D4">
-        <v>101.961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>5.13</v>
+      </c>
+      <c r="E4">
+        <v>5.13</v>
+      </c>
+      <c r="F4">
+        <v>5.13</v>
+      </c>
+      <c r="G4">
+        <v>5.13</v>
+      </c>
+      <c r="H4">
+        <v>5.13</v>
+      </c>
+      <c r="I4">
+        <v>5.13</v>
+      </c>
+      <c r="J4">
+        <v>5.13</v>
+      </c>
+      <c r="K4">
+        <v>5.13</v>
+      </c>
+      <c r="L4">
+        <v>5.12</v>
+      </c>
+      <c r="M4">
+        <v>5.12</v>
+      </c>
+      <c r="N4">
+        <v>5.12</v>
+      </c>
+      <c r="O4">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="P4">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Q4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S4">
+        <v>5.09</v>
+      </c>
+      <c r="T4">
+        <v>5.09</v>
+      </c>
+      <c r="U4">
+        <v>5.08</v>
+      </c>
+      <c r="V4">
+        <v>5.08</v>
+      </c>
+      <c r="W4">
+        <v>5.07</v>
+      </c>
+      <c r="X4">
+        <v>4.92</v>
+      </c>
+      <c r="Y4">
+        <v>4.8</v>
+      </c>
+      <c r="Z4">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="AA4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f>C5/2</f>
+        <v>75.994500000000002</v>
       </c>
       <c r="C5">
-        <v>75.986999999999995</v>
+        <v>151.989</v>
       </c>
       <c r="D5">
-        <v>151.989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>71.843999999999994</v>
+      </c>
+      <c r="C6">
+        <v>71.843999999999994</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>0.23</v>
+      </c>
+      <c r="F6">
+        <v>0.23</v>
+      </c>
+      <c r="G6">
+        <v>0.23</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.32</v>
+      </c>
+      <c r="K6">
+        <v>0.36</v>
+      </c>
+      <c r="L6">
+        <v>0.41</v>
+      </c>
+      <c r="M6">
+        <v>0.49</v>
+      </c>
+      <c r="N6">
+        <v>0.59</v>
+      </c>
+      <c r="O6">
+        <v>0.77</v>
+      </c>
+      <c r="P6">
+        <v>0.93</v>
+      </c>
+      <c r="Q6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R6">
+        <v>1.29</v>
+      </c>
+      <c r="S6">
+        <v>1.52</v>
+      </c>
+      <c r="T6">
+        <v>1.78</v>
+      </c>
+      <c r="U6">
+        <v>2.08</v>
+      </c>
+      <c r="V6">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="W6">
+        <v>2.5</v>
+      </c>
+      <c r="X6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y6">
+        <v>5.8</v>
+      </c>
+      <c r="Z6">
+        <v>7.02</v>
+      </c>
+      <c r="AA6">
         <v>8.1</v>
       </c>
-      <c r="C6">
-        <v>71.838999999999999</v>
-      </c>
-      <c r="D6">
-        <v>71.843999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>70.936999999999998</v>
       </c>
       <c r="C7">
-        <v>70.932000000000002</v>
+        <v>70.936999999999998</v>
       </c>
       <c r="D7">
-        <v>70.936999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>37.799999999999997</v>
+        <v>40.304000000000002</v>
       </c>
       <c r="C8">
-        <v>40.298999999999999</v>
+        <v>40.304000000000002</v>
       </c>
       <c r="D8">
-        <v>40.304000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>41.79</v>
+      </c>
+      <c r="E8">
+        <v>41.8</v>
+      </c>
+      <c r="F8">
+        <v>41.8</v>
+      </c>
+      <c r="G8">
+        <v>41.8</v>
+      </c>
+      <c r="H8">
+        <v>41.79</v>
+      </c>
+      <c r="I8">
+        <v>41.78</v>
+      </c>
+      <c r="J8">
+        <v>41.77</v>
+      </c>
+      <c r="K8">
+        <v>41.75</v>
+      </c>
+      <c r="L8">
+        <v>41.74</v>
+      </c>
+      <c r="M8">
+        <v>41.72</v>
+      </c>
+      <c r="N8">
+        <v>41.7</v>
+      </c>
+      <c r="O8">
+        <v>41.66</v>
+      </c>
+      <c r="P8">
+        <v>41.62</v>
+      </c>
+      <c r="Q8">
+        <v>41.58</v>
+      </c>
+      <c r="R8">
+        <v>41.54</v>
+      </c>
+      <c r="S8">
+        <v>41.49</v>
+      </c>
+      <c r="T8">
+        <v>41.45</v>
+      </c>
+      <c r="U8">
+        <v>41.39</v>
+      </c>
+      <c r="V8">
+        <v>41.34</v>
+      </c>
+      <c r="W8">
+        <v>41.3</v>
+      </c>
+      <c r="X8">
+        <v>40.04</v>
+      </c>
+      <c r="Y8">
+        <v>39.08</v>
+      </c>
+      <c r="Z8">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="AA8">
+        <v>37.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>74.691999999999993</v>
       </c>
       <c r="C9">
-        <v>58.9634</v>
+        <v>74.691999999999993</v>
       </c>
       <c r="D9">
-        <v>74.691999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.1</v>
+      </c>
+      <c r="X9">
+        <v>0.1</v>
+      </c>
+      <c r="Y9">
+        <v>0.1</v>
+      </c>
+      <c r="Z9">
+        <v>0.2</v>
+      </c>
+      <c r="AA9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>3.55</v>
+        <v>56.076999999999998</v>
       </c>
       <c r="C10">
-        <v>56.072000000000003</v>
+        <v>56.076999999999998</v>
       </c>
       <c r="D10">
-        <v>56.076999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>4.17</v>
+      </c>
+      <c r="E10">
+        <v>4.17</v>
+      </c>
+      <c r="F10">
+        <v>4.17</v>
+      </c>
+      <c r="G10">
+        <v>4.17</v>
+      </c>
+      <c r="H10">
+        <v>4.17</v>
+      </c>
+      <c r="I10">
+        <v>4.17</v>
+      </c>
+      <c r="J10">
+        <v>4.17</v>
+      </c>
+      <c r="K10">
+        <v>4.17</v>
+      </c>
+      <c r="L10">
+        <v>4.17</v>
+      </c>
+      <c r="M10">
+        <v>4.16</v>
+      </c>
+      <c r="N10">
+        <v>4.16</v>
+      </c>
+      <c r="O10">
+        <v>4.16</v>
+      </c>
+      <c r="P10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="R10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="S10">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="T10">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="U10">
+        <v>4.13</v>
+      </c>
+      <c r="V10">
+        <v>4.13</v>
+      </c>
+      <c r="W10">
+        <v>4.12</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>3.9</v>
+      </c>
+      <c r="Z10">
+        <v>3.82</v>
+      </c>
+      <c r="AA10">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.36</v>
+        <f>C11/2</f>
+        <v>30.986000000000001</v>
       </c>
       <c r="C11">
-        <v>30.986799999999999</v>
+        <v>61.972000000000001</v>
       </c>
       <c r="D11">
-        <v>61.972000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>2.9000000000000001E-2</v>
+        <f>C12/2</f>
+        <v>47.097499999999997</v>
       </c>
       <c r="C12">
-        <v>47.094999999999999</v>
+        <v>94.194999999999993</v>
       </c>
       <c r="D12">
-        <v>94.194999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>2.1000000000000001E-2</v>
+        <f>C13/2</f>
+        <v>70.971500000000006</v>
       </c>
       <c r="C13">
-        <v>70.959000000000003</v>
+        <v>141.94300000000001</v>
       </c>
       <c r="D13">
-        <v>141.94300000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>0.11</v>
+      </c>
+      <c r="E14">
+        <v>0.12</v>
+      </c>
+      <c r="F14">
+        <v>0.13</v>
+      </c>
+      <c r="G14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.15</v>
+      </c>
+      <c r="I14">
+        <v>0.17</v>
+      </c>
+      <c r="J14">
+        <v>0.19</v>
+      </c>
+      <c r="K14">
+        <v>0.21</v>
+      </c>
+      <c r="L14">
+        <v>0.23</v>
+      </c>
+      <c r="M14">
+        <v>0.25</v>
+      </c>
+      <c r="N14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O14">
+        <v>0.31</v>
+      </c>
+      <c r="P14">
+        <v>0.34</v>
+      </c>
+      <c r="Q14">
+        <v>0.37</v>
+      </c>
+      <c r="R14">
+        <v>0.41</v>
+      </c>
+      <c r="S14">
+        <v>0.45</v>
+      </c>
+      <c r="T14">
+        <v>0.5</v>
+      </c>
+      <c r="U14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V14">
+        <v>0.61</v>
+      </c>
+      <c r="W14">
+        <v>0.67</v>
+      </c>
+      <c r="X14">
+        <v>0.74</v>
+      </c>
+      <c r="Y14">
+        <v>0.81</v>
+      </c>
+      <c r="Z14">
+        <v>0.89</v>
+      </c>
+      <c r="AA14">
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
@@ -696,171 +1614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F6B0B9-3302-493B-9F61-2729263CC03A}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>57.3</v>
-      </c>
-      <c r="C2">
-        <v>60.073499999999996</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>79.055000000000007</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>14.8</v>
-      </c>
-      <c r="C4">
-        <v>50.971000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>75.986999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>9.4</v>
-      </c>
-      <c r="C6">
-        <v>71.838999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>70.932000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2.1</v>
-      </c>
-      <c r="C8">
-        <v>40.298999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>58.9634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>7.4</v>
-      </c>
-      <c r="C10">
-        <v>56.072000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C11">
-        <v>30.986799999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C12">
-        <v>47.094999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>70.959000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5146B3F2-5D51-4479-B498-CD00EDF9B2C3}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -1022,1116 +1776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03CE06D-D7F7-4E9B-AFF4-E70EE4FFB40E}">
-  <dimension ref="A1:AA14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>60.084</f>
-        <v>60.084000000000003</v>
-      </c>
-      <c r="C2">
-        <v>60.084000000000003</v>
-      </c>
-      <c r="D2">
-        <v>48.61</v>
-      </c>
-      <c r="E2">
-        <v>48.66</v>
-      </c>
-      <c r="F2">
-        <v>48.67</v>
-      </c>
-      <c r="G2">
-        <v>48.67</v>
-      </c>
-      <c r="H2">
-        <v>48.66</v>
-      </c>
-      <c r="I2">
-        <v>48.64</v>
-      </c>
-      <c r="J2">
-        <v>48.62</v>
-      </c>
-      <c r="K2">
-        <v>48.59</v>
-      </c>
-      <c r="L2">
-        <v>48.55</v>
-      </c>
-      <c r="M2">
-        <v>48.5</v>
-      </c>
-      <c r="N2">
-        <v>48.43</v>
-      </c>
-      <c r="O2">
-        <v>48.3</v>
-      </c>
-      <c r="P2">
-        <v>48.17</v>
-      </c>
-      <c r="Q2">
-        <v>48.04</v>
-      </c>
-      <c r="R2">
-        <v>47.88</v>
-      </c>
-      <c r="S2">
-        <v>47.69</v>
-      </c>
-      <c r="T2">
-        <v>47.47</v>
-      </c>
-      <c r="U2">
-        <v>47.2</v>
-      </c>
-      <c r="V2">
-        <v>46.98</v>
-      </c>
-      <c r="W2">
-        <v>46.82</v>
-      </c>
-      <c r="X2">
-        <v>46.42</v>
-      </c>
-      <c r="Y2">
-        <v>46.18</v>
-      </c>
-      <c r="Z2">
-        <v>46</v>
-      </c>
-      <c r="AA2">
-        <v>45.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f>79.865</f>
-        <v>79.864999999999995</v>
-      </c>
-      <c r="C3">
-        <v>79.864999999999995</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <f>C4/2</f>
-        <v>50.980499999999999</v>
-      </c>
-      <c r="C4">
-        <v>101.961</v>
-      </c>
-      <c r="D4">
-        <v>5.13</v>
-      </c>
-      <c r="E4">
-        <v>5.13</v>
-      </c>
-      <c r="F4">
-        <v>5.13</v>
-      </c>
-      <c r="G4">
-        <v>5.13</v>
-      </c>
-      <c r="H4">
-        <v>5.13</v>
-      </c>
-      <c r="I4">
-        <v>5.13</v>
-      </c>
-      <c r="J4">
-        <v>5.13</v>
-      </c>
-      <c r="K4">
-        <v>5.13</v>
-      </c>
-      <c r="L4">
-        <v>5.12</v>
-      </c>
-      <c r="M4">
-        <v>5.12</v>
-      </c>
-      <c r="N4">
-        <v>5.12</v>
-      </c>
-      <c r="O4">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="P4">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="Q4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="R4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="S4">
-        <v>5.09</v>
-      </c>
-      <c r="T4">
-        <v>5.09</v>
-      </c>
-      <c r="U4">
-        <v>5.08</v>
-      </c>
-      <c r="V4">
-        <v>5.08</v>
-      </c>
-      <c r="W4">
-        <v>5.07</v>
-      </c>
-      <c r="X4">
-        <v>4.92</v>
-      </c>
-      <c r="Y4">
-        <v>4.8</v>
-      </c>
-      <c r="Z4">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="AA4">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <f>C5/2</f>
-        <v>75.994500000000002</v>
-      </c>
-      <c r="C5">
-        <v>151.989</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>71.843999999999994</v>
-      </c>
-      <c r="C6">
-        <v>71.843999999999994</v>
-      </c>
-      <c r="D6">
-        <v>0.3</v>
-      </c>
-      <c r="E6">
-        <v>0.23</v>
-      </c>
-      <c r="F6">
-        <v>0.23</v>
-      </c>
-      <c r="G6">
-        <v>0.23</v>
-      </c>
-      <c r="H6">
-        <v>0.25</v>
-      </c>
-      <c r="I6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J6">
-        <v>0.32</v>
-      </c>
-      <c r="K6">
-        <v>0.36</v>
-      </c>
-      <c r="L6">
-        <v>0.41</v>
-      </c>
-      <c r="M6">
-        <v>0.49</v>
-      </c>
-      <c r="N6">
-        <v>0.59</v>
-      </c>
-      <c r="O6">
-        <v>0.77</v>
-      </c>
-      <c r="P6">
-        <v>0.93</v>
-      </c>
-      <c r="Q6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R6">
-        <v>1.29</v>
-      </c>
-      <c r="S6">
-        <v>1.52</v>
-      </c>
-      <c r="T6">
-        <v>1.78</v>
-      </c>
-      <c r="U6">
-        <v>2.08</v>
-      </c>
-      <c r="V6">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="W6">
-        <v>2.5</v>
-      </c>
-      <c r="X6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Y6">
-        <v>5.8</v>
-      </c>
-      <c r="Z6">
-        <v>7.02</v>
-      </c>
-      <c r="AA6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>70.936999999999998</v>
-      </c>
-      <c r="C7">
-        <v>70.936999999999998</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>40.304000000000002</v>
-      </c>
-      <c r="C8">
-        <v>40.304000000000002</v>
-      </c>
-      <c r="D8">
-        <v>41.79</v>
-      </c>
-      <c r="E8">
-        <v>41.8</v>
-      </c>
-      <c r="F8">
-        <v>41.8</v>
-      </c>
-      <c r="G8">
-        <v>41.8</v>
-      </c>
-      <c r="H8">
-        <v>41.79</v>
-      </c>
-      <c r="I8">
-        <v>41.78</v>
-      </c>
-      <c r="J8">
-        <v>41.77</v>
-      </c>
-      <c r="K8">
-        <v>41.75</v>
-      </c>
-      <c r="L8">
-        <v>41.74</v>
-      </c>
-      <c r="M8">
-        <v>41.72</v>
-      </c>
-      <c r="N8">
-        <v>41.7</v>
-      </c>
-      <c r="O8">
-        <v>41.66</v>
-      </c>
-      <c r="P8">
-        <v>41.62</v>
-      </c>
-      <c r="Q8">
-        <v>41.58</v>
-      </c>
-      <c r="R8">
-        <v>41.54</v>
-      </c>
-      <c r="S8">
-        <v>41.49</v>
-      </c>
-      <c r="T8">
-        <v>41.45</v>
-      </c>
-      <c r="U8">
-        <v>41.39</v>
-      </c>
-      <c r="V8">
-        <v>41.34</v>
-      </c>
-      <c r="W8">
-        <v>41.3</v>
-      </c>
-      <c r="X8">
-        <v>40.04</v>
-      </c>
-      <c r="Y8">
-        <v>39.08</v>
-      </c>
-      <c r="Z8">
-        <v>38.229999999999997</v>
-      </c>
-      <c r="AA8">
-        <v>37.47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>74.691999999999993</v>
-      </c>
-      <c r="C9">
-        <v>74.691999999999993</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0.1</v>
-      </c>
-      <c r="X9">
-        <v>0.1</v>
-      </c>
-      <c r="Y9">
-        <v>0.1</v>
-      </c>
-      <c r="Z9">
-        <v>0.2</v>
-      </c>
-      <c r="AA9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>56.076999999999998</v>
-      </c>
-      <c r="C10">
-        <v>56.076999999999998</v>
-      </c>
-      <c r="D10">
-        <v>4.17</v>
-      </c>
-      <c r="E10">
-        <v>4.17</v>
-      </c>
-      <c r="F10">
-        <v>4.17</v>
-      </c>
-      <c r="G10">
-        <v>4.17</v>
-      </c>
-      <c r="H10">
-        <v>4.17</v>
-      </c>
-      <c r="I10">
-        <v>4.17</v>
-      </c>
-      <c r="J10">
-        <v>4.17</v>
-      </c>
-      <c r="K10">
-        <v>4.17</v>
-      </c>
-      <c r="L10">
-        <v>4.17</v>
-      </c>
-      <c r="M10">
-        <v>4.16</v>
-      </c>
-      <c r="N10">
-        <v>4.16</v>
-      </c>
-      <c r="O10">
-        <v>4.16</v>
-      </c>
-      <c r="P10">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="Q10">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="R10">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="S10">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="T10">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="U10">
-        <v>4.13</v>
-      </c>
-      <c r="V10">
-        <v>4.13</v>
-      </c>
-      <c r="W10">
-        <v>4.12</v>
-      </c>
-      <c r="X10">
-        <v>4</v>
-      </c>
-      <c r="Y10">
-        <v>3.9</v>
-      </c>
-      <c r="Z10">
-        <v>3.82</v>
-      </c>
-      <c r="AA10">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <f>C11/2</f>
-        <v>30.986000000000001</v>
-      </c>
-      <c r="C11">
-        <v>61.972000000000001</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <f>C12/2</f>
-        <v>47.097499999999997</v>
-      </c>
-      <c r="C12">
-        <v>94.194999999999993</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <f>C13/2</f>
-        <v>70.971500000000006</v>
-      </c>
-      <c r="C13">
-        <v>141.94300000000001</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>0.11</v>
-      </c>
-      <c r="E14">
-        <v>0.12</v>
-      </c>
-      <c r="F14">
-        <v>0.13</v>
-      </c>
-      <c r="G14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.15</v>
-      </c>
-      <c r="I14">
-        <v>0.17</v>
-      </c>
-      <c r="J14">
-        <v>0.19</v>
-      </c>
-      <c r="K14">
-        <v>0.21</v>
-      </c>
-      <c r="L14">
-        <v>0.23</v>
-      </c>
-      <c r="M14">
-        <v>0.25</v>
-      </c>
-      <c r="N14">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O14">
-        <v>0.31</v>
-      </c>
-      <c r="P14">
-        <v>0.34</v>
-      </c>
-      <c r="Q14">
-        <v>0.37</v>
-      </c>
-      <c r="R14">
-        <v>0.41</v>
-      </c>
-      <c r="S14">
-        <v>0.45</v>
-      </c>
-      <c r="T14">
-        <v>0.5</v>
-      </c>
-      <c r="U14">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="V14">
-        <v>0.61</v>
-      </c>
-      <c r="W14">
-        <v>0.67</v>
-      </c>
-      <c r="X14">
-        <v>0.74</v>
-      </c>
-      <c r="Y14">
-        <v>0.81</v>
-      </c>
-      <c r="Z14">
-        <v>0.89</v>
-      </c>
-      <c r="AA14">
-        <v>0.98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581EC8AC-69E9-401A-A66F-7E71B38645AD}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -2290,7 +1935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A921F10-46BC-4155-A64F-34FE739E62CD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2488,12 +2133,672 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213687D-B7EB-4E13-8E33-BA94B7C0A1A8}">
+  <dimension ref="A1:Z9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>55.844999999999999</v>
+      </c>
+      <c r="C2">
+        <v>83.63</v>
+      </c>
+      <c r="D2">
+        <v>83.67</v>
+      </c>
+      <c r="E2">
+        <v>83.68</v>
+      </c>
+      <c r="F2">
+        <v>83.69</v>
+      </c>
+      <c r="G2">
+        <v>83.69</v>
+      </c>
+      <c r="H2">
+        <v>83.69</v>
+      </c>
+      <c r="I2">
+        <v>83.68</v>
+      </c>
+      <c r="J2">
+        <v>83.66</v>
+      </c>
+      <c r="K2">
+        <v>83.64</v>
+      </c>
+      <c r="L2">
+        <v>83.61</v>
+      </c>
+      <c r="M2">
+        <v>83.56</v>
+      </c>
+      <c r="N2">
+        <v>83.46</v>
+      </c>
+      <c r="O2">
+        <v>83.37</v>
+      </c>
+      <c r="P2">
+        <v>83.27</v>
+      </c>
+      <c r="Q2">
+        <v>83.14</v>
+      </c>
+      <c r="R2">
+        <v>82.99</v>
+      </c>
+      <c r="S2">
+        <v>82.8</v>
+      </c>
+      <c r="T2">
+        <v>82.58</v>
+      </c>
+      <c r="U2">
+        <v>82.42</v>
+      </c>
+      <c r="V2">
+        <v>82.32</v>
+      </c>
+      <c r="W2">
+        <v>82.66</v>
+      </c>
+      <c r="X2">
+        <v>82.99</v>
+      </c>
+      <c r="Y2">
+        <v>83.35</v>
+      </c>
+      <c r="Z2">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>58.692999999999998</v>
+      </c>
+      <c r="C3">
+        <v>4.91</v>
+      </c>
+      <c r="D3">
+        <v>4.91</v>
+      </c>
+      <c r="E3">
+        <v>4.91</v>
+      </c>
+      <c r="F3">
+        <v>4.91</v>
+      </c>
+      <c r="G3">
+        <v>4.91</v>
+      </c>
+      <c r="H3">
+        <v>4.91</v>
+      </c>
+      <c r="I3">
+        <v>4.91</v>
+      </c>
+      <c r="J3">
+        <v>4.91</v>
+      </c>
+      <c r="K3">
+        <v>4.91</v>
+      </c>
+      <c r="L3">
+        <v>4.92</v>
+      </c>
+      <c r="M3">
+        <v>4.92</v>
+      </c>
+      <c r="N3">
+        <v>4.92</v>
+      </c>
+      <c r="O3">
+        <v>4.92</v>
+      </c>
+      <c r="P3">
+        <v>4.92</v>
+      </c>
+      <c r="Q3">
+        <v>4.92</v>
+      </c>
+      <c r="R3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S3">
+        <v>4.88</v>
+      </c>
+      <c r="T3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="U3">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="V3">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="W3">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="X3">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="Y3">
+        <v>5.17</v>
+      </c>
+      <c r="Z3">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>58.933</v>
+      </c>
+      <c r="C4">
+        <v>0.23</v>
+      </c>
+      <c r="D4">
+        <v>0.23</v>
+      </c>
+      <c r="E4">
+        <v>0.23</v>
+      </c>
+      <c r="F4">
+        <v>0.23</v>
+      </c>
+      <c r="G4">
+        <v>0.23</v>
+      </c>
+      <c r="H4">
+        <v>0.23</v>
+      </c>
+      <c r="I4">
+        <v>0.23</v>
+      </c>
+      <c r="J4">
+        <v>0.23</v>
+      </c>
+      <c r="K4">
+        <v>0.23</v>
+      </c>
+      <c r="L4">
+        <v>0.23</v>
+      </c>
+      <c r="M4">
+        <v>0.23</v>
+      </c>
+      <c r="N4">
+        <v>0.23</v>
+      </c>
+      <c r="O4">
+        <v>0.23</v>
+      </c>
+      <c r="P4">
+        <v>0.23</v>
+      </c>
+      <c r="Q4">
+        <v>0.23</v>
+      </c>
+      <c r="R4">
+        <v>0.23</v>
+      </c>
+      <c r="S4">
+        <v>0.23</v>
+      </c>
+      <c r="T4">
+        <v>0.23</v>
+      </c>
+      <c r="U4">
+        <v>0.22</v>
+      </c>
+      <c r="V4">
+        <v>0.22</v>
+      </c>
+      <c r="W4">
+        <v>0.23</v>
+      </c>
+      <c r="X4">
+        <v>0.23</v>
+      </c>
+      <c r="Y4">
+        <v>0.24</v>
+      </c>
+      <c r="Z4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>28.085000000000001</v>
+      </c>
+      <c r="C5">
+        <v>9.17</v>
+      </c>
+      <c r="D5">
+        <v>9.14</v>
+      </c>
+      <c r="E5">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="F5">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="G5">
+        <v>9.14</v>
+      </c>
+      <c r="H5">
+        <v>9.14</v>
+      </c>
+      <c r="I5">
+        <v>9.16</v>
+      </c>
+      <c r="J5">
+        <v>9.18</v>
+      </c>
+      <c r="K5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L5">
+        <v>9.23</v>
+      </c>
+      <c r="M5">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="N5">
+        <v>9.36</v>
+      </c>
+      <c r="O5">
+        <v>9.44</v>
+      </c>
+      <c r="P5">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="Q5">
+        <v>9.64</v>
+      </c>
+      <c r="R5">
+        <v>9.77</v>
+      </c>
+      <c r="S5">
+        <v>9.89</v>
+      </c>
+      <c r="T5">
+        <v>10.1</v>
+      </c>
+      <c r="U5">
+        <v>10.28</v>
+      </c>
+      <c r="V5">
+        <v>10.4</v>
+      </c>
+      <c r="W5">
+        <v>9.89</v>
+      </c>
+      <c r="X5">
+        <v>9.39</v>
+      </c>
+      <c r="Y5">
+        <v>8.85</v>
+      </c>
+      <c r="Z5">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>15.99</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>0.09</v>
+      </c>
+      <c r="E6">
+        <v>0.08</v>
+      </c>
+      <c r="F6">
+        <v>0.08</v>
+      </c>
+      <c r="G6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.06</v>
+      </c>
+      <c r="J6">
+        <v>0.06</v>
+      </c>
+      <c r="K6">
+        <v>0.06</v>
+      </c>
+      <c r="L6">
+        <v>0.06</v>
+      </c>
+      <c r="M6">
+        <v>0.06</v>
+      </c>
+      <c r="N6">
+        <v>0.06</v>
+      </c>
+      <c r="O6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.09</v>
+      </c>
+      <c r="Q6">
+        <v>0.11</v>
+      </c>
+      <c r="R6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.19</v>
+      </c>
+      <c r="T6">
+        <v>0.25</v>
+      </c>
+      <c r="U6">
+        <v>0.3</v>
+      </c>
+      <c r="V6">
+        <v>0.33</v>
+      </c>
+      <c r="W6">
+        <v>0.37</v>
+      </c>
+      <c r="X6">
+        <v>0.4</v>
+      </c>
+      <c r="Y6">
+        <v>0.44</v>
+      </c>
+      <c r="Z6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>51.996000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.95</v>
+      </c>
+      <c r="D7">
+        <v>1.01</v>
+      </c>
+      <c r="E7">
+        <v>1.04</v>
+      </c>
+      <c r="F7">
+        <v>1.06</v>
+      </c>
+      <c r="G7">
+        <v>1.06</v>
+      </c>
+      <c r="H7">
+        <v>1.06</v>
+      </c>
+      <c r="I7">
+        <v>1.06</v>
+      </c>
+      <c r="J7">
+        <v>1.06</v>
+      </c>
+      <c r="K7">
+        <v>1.05</v>
+      </c>
+      <c r="L7">
+        <v>1.04</v>
+      </c>
+      <c r="M7">
+        <v>1.03</v>
+      </c>
+      <c r="N7">
+        <v>1.01</v>
+      </c>
+      <c r="O7">
+        <v>0.99</v>
+      </c>
+      <c r="P7">
+        <v>0.98</v>
+      </c>
+      <c r="Q7">
+        <v>0.96</v>
+      </c>
+      <c r="R7">
+        <v>0.94</v>
+      </c>
+      <c r="S7">
+        <v>0.92</v>
+      </c>
+      <c r="T7">
+        <v>0.9</v>
+      </c>
+      <c r="U7">
+        <v>0.89</v>
+      </c>
+      <c r="V7">
+        <v>0.88</v>
+      </c>
+      <c r="W7">
+        <v>0.84</v>
+      </c>
+      <c r="X7">
+        <v>0.81</v>
+      </c>
+      <c r="Y7">
+        <v>0.77</v>
+      </c>
+      <c r="Z7">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>0.11</v>
+      </c>
+      <c r="D8">
+        <v>0.12</v>
+      </c>
+      <c r="E8">
+        <v>0.13</v>
+      </c>
+      <c r="F8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.15</v>
+      </c>
+      <c r="H8">
+        <v>0.17</v>
+      </c>
+      <c r="I8">
+        <v>0.19</v>
+      </c>
+      <c r="J8">
+        <v>0.21</v>
+      </c>
+      <c r="K8">
+        <v>0.23</v>
+      </c>
+      <c r="L8">
+        <v>0.25</v>
+      </c>
+      <c r="M8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.31</v>
+      </c>
+      <c r="O8">
+        <v>0.34</v>
+      </c>
+      <c r="P8">
+        <v>0.37</v>
+      </c>
+      <c r="Q8">
+        <v>0.41</v>
+      </c>
+      <c r="R8">
+        <v>0.45</v>
+      </c>
+      <c r="S8">
+        <v>0.5</v>
+      </c>
+      <c r="T8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U8">
+        <v>0.61</v>
+      </c>
+      <c r="V8">
+        <v>0.67</v>
+      </c>
+      <c r="W8">
+        <v>0.74</v>
+      </c>
+      <c r="X8">
+        <v>0.81</v>
+      </c>
+      <c r="Y8">
+        <v>0.89</v>
+      </c>
+      <c r="Z8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>36.5</v>
+      </c>
+      <c r="D9">
+        <v>36.5</v>
+      </c>
+      <c r="E9">
+        <v>36.5</v>
+      </c>
+      <c r="F9">
+        <v>36.5</v>
+      </c>
+      <c r="G9">
+        <v>36.5</v>
+      </c>
+      <c r="H9">
+        <v>36.5</v>
+      </c>
+      <c r="I9">
+        <v>36.5</v>
+      </c>
+      <c r="J9">
+        <v>36.5</v>
+      </c>
+      <c r="K9">
+        <v>36.4</v>
+      </c>
+      <c r="L9">
+        <v>36.4</v>
+      </c>
+      <c r="M9">
+        <v>36.4</v>
+      </c>
+      <c r="N9">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="O9">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="P9">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>36.1</v>
+      </c>
+      <c r="R9">
+        <v>36.1</v>
+      </c>
+      <c r="S9">
+        <v>36</v>
+      </c>
+      <c r="T9">
+        <v>35.9</v>
+      </c>
+      <c r="U9">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="V9">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="W9">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="X9">
+        <v>32.9</v>
+      </c>
+      <c r="Y9">
+        <v>31.7</v>
+      </c>
+      <c r="Z9">
+        <v>30.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43329061-6CEB-4DB0-96A3-23976A043392}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -2692,12 +2997,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C50E20B-E2FE-411C-A01F-56D3E3E158EC}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>85.1</v>
+      </c>
+      <c r="C2">
+        <v>55.844999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>5.04</v>
+      </c>
+      <c r="C3">
+        <v>58.692999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.24</v>
+      </c>
+      <c r="C4">
+        <v>58.933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>9.57</v>
+      </c>
+      <c r="C5">
+        <v>28.085000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0.06</v>
+      </c>
+      <c r="C6">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.92</v>
+      </c>
+      <c r="C7">
+        <v>51.996000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E9A9B5-4386-458B-AE93-B3C4EE583230}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -2896,12 +3307,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6730E3DD-1B24-416B-963B-8536D03899DF}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>90.82</v>
+      </c>
+      <c r="C2">
+        <v>55.844999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>8.18</v>
+      </c>
+      <c r="C3">
+        <v>58.692999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.36</v>
+      </c>
+      <c r="C4">
+        <v>58.933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0.02</v>
+      </c>
+      <c r="C5">
+        <v>28.085000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.12</v>
+      </c>
+      <c r="C7">
+        <v>51.996000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>20.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D74315-7BB2-43C4-85AC-12998C31C28C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -2934,7 +3451,7 @@
         <v>55.844999999999999</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D7" si="0">B2/C2</f>
+        <f>B2/C2</f>
         <v>1.5326349717969381</v>
       </c>
       <c r="E2">
@@ -2953,7 +3470,7 @@
         <v>58.692999999999998</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D7" si="0">B3/C3</f>
         <v>8.5189034467483354E-2</v>
       </c>
     </row>
@@ -3027,4 +3544,371 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D605C485-1DC2-CE40-93E0-F6D4262E732D}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>45.49</v>
+      </c>
+      <c r="C2">
+        <v>60.073499999999996</v>
+      </c>
+      <c r="D2">
+        <v>60.084000000000003</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>79.055000000000007</v>
+      </c>
+      <c r="D3">
+        <v>79.864999999999995</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.45</v>
+      </c>
+      <c r="C4">
+        <v>50.971000000000004</v>
+      </c>
+      <c r="D4">
+        <v>101.961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>75.986999999999995</v>
+      </c>
+      <c r="D5">
+        <v>151.989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8.1</v>
+      </c>
+      <c r="C6">
+        <v>71.838999999999999</v>
+      </c>
+      <c r="D6">
+        <v>71.843999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.932000000000002</v>
+      </c>
+      <c r="D7">
+        <v>70.936999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C8">
+        <v>40.298999999999999</v>
+      </c>
+      <c r="D8">
+        <v>40.304000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>58.9634</v>
+      </c>
+      <c r="D9">
+        <v>74.691999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3.55</v>
+      </c>
+      <c r="C10">
+        <v>56.072000000000003</v>
+      </c>
+      <c r="D10">
+        <v>56.076999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.36</v>
+      </c>
+      <c r="C11">
+        <v>30.986799999999999</v>
+      </c>
+      <c r="D11">
+        <v>61.972000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>47.094999999999999</v>
+      </c>
+      <c r="D12">
+        <v>94.194999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>70.959000000000003</v>
+      </c>
+      <c r="D13">
+        <v>141.94300000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F6B0B9-3302-493B-9F61-2729263CC03A}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>57.3</v>
+      </c>
+      <c r="C2">
+        <v>60.073499999999996</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>79.055000000000007</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14.8</v>
+      </c>
+      <c r="C4">
+        <v>50.971000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>75.986999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9.4</v>
+      </c>
+      <c r="C6">
+        <v>71.838999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.932000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2.1</v>
+      </c>
+      <c r="C8">
+        <v>40.298999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>58.9634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>7.4</v>
+      </c>
+      <c r="C10">
+        <v>56.072000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C11">
+        <v>30.986799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C12">
+        <v>47.094999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>70.959000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/db/MoleWeights.xlsx
+++ b/db/MoleWeights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elars\Desktop\Yale School Stuff\EPS 529 - Geodynamics\Project continued\MORedox_2023_v3\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ED738B-0B9A-4215-9ABD-9D92BEFDB704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294D540F-7892-4EF1-A1CE-950267B02135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="5" xr2:uid="{47A84D43-22DB-204C-98DE-F7496EE65383}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" firstSheet="2" activeTab="7" xr2:uid="{47A84D43-22DB-204C-98DE-F7496EE65383}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubie11_Emantle" sheetId="11" r:id="rId1"/>
@@ -19,12 +19,14 @@
     <sheet name="ImpEarly_core" sheetId="15" r:id="rId4"/>
     <sheet name="ImpLate_mantle" sheetId="6" r:id="rId5"/>
     <sheet name="ImpLate_core" sheetId="14" r:id="rId6"/>
-    <sheet name="metal" sheetId="12" r:id="rId7"/>
-    <sheet name="Deng20" sheetId="1" r:id="rId8"/>
-    <sheet name="Armstrong19" sheetId="2" r:id="rId9"/>
-    <sheet name="Hirsch22" sheetId="3" r:id="rId10"/>
-    <sheet name="EarthEarly" sheetId="4" r:id="rId11"/>
-    <sheet name="EarthLate" sheetId="7" r:id="rId12"/>
+    <sheet name="ImpMid_mantle" sheetId="16" r:id="rId7"/>
+    <sheet name="ImpMid_core" sheetId="17" r:id="rId8"/>
+    <sheet name="metal" sheetId="12" r:id="rId9"/>
+    <sheet name="Deng20" sheetId="1" r:id="rId10"/>
+    <sheet name="Armstrong19" sheetId="2" r:id="rId11"/>
+    <sheet name="Hirsch22" sheetId="3" r:id="rId12"/>
+    <sheet name="EarthEarly" sheetId="4" r:id="rId13"/>
+    <sheet name="EarthLate" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="34">
   <si>
     <t>SiO2</t>
   </si>
@@ -1615,6 +1617,373 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D605C485-1DC2-CE40-93E0-F6D4262E732D}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>45.49</v>
+      </c>
+      <c r="C2">
+        <v>60.073499999999996</v>
+      </c>
+      <c r="D2">
+        <v>60.084000000000003</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>79.055000000000007</v>
+      </c>
+      <c r="D3">
+        <v>79.864999999999995</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.45</v>
+      </c>
+      <c r="C4">
+        <v>50.971000000000004</v>
+      </c>
+      <c r="D4">
+        <v>101.961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>75.986999999999995</v>
+      </c>
+      <c r="D5">
+        <v>151.989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8.1</v>
+      </c>
+      <c r="C6">
+        <v>71.838999999999999</v>
+      </c>
+      <c r="D6">
+        <v>71.843999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.932000000000002</v>
+      </c>
+      <c r="D7">
+        <v>70.936999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C8">
+        <v>40.298999999999999</v>
+      </c>
+      <c r="D8">
+        <v>40.304000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>58.9634</v>
+      </c>
+      <c r="D9">
+        <v>74.691999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3.55</v>
+      </c>
+      <c r="C10">
+        <v>56.072000000000003</v>
+      </c>
+      <c r="D10">
+        <v>56.076999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.36</v>
+      </c>
+      <c r="C11">
+        <v>30.986799999999999</v>
+      </c>
+      <c r="D11">
+        <v>61.972000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>47.094999999999999</v>
+      </c>
+      <c r="D12">
+        <v>94.194999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>70.959000000000003</v>
+      </c>
+      <c r="D13">
+        <v>141.94300000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F6B0B9-3302-493B-9F61-2729263CC03A}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>57.3</v>
+      </c>
+      <c r="C2">
+        <v>60.073499999999996</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>79.055000000000007</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14.8</v>
+      </c>
+      <c r="C4">
+        <v>50.971000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>75.986999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9.4</v>
+      </c>
+      <c r="C6">
+        <v>71.838999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.932000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2.1</v>
+      </c>
+      <c r="C8">
+        <v>40.298999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>58.9634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>7.4</v>
+      </c>
+      <c r="C10">
+        <v>56.072000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C11">
+        <v>30.986799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C12">
+        <v>47.094999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>70.959000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5146B3F2-5D51-4479-B498-CD00EDF9B2C3}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -1776,7 +2145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581EC8AC-69E9-401A-A66F-7E71B38645AD}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -1935,7 +2304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A921F10-46BC-4155-A64F-34FE739E62CD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2798,7 +3167,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -3002,7 +3371,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -3108,7 +3477,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -3311,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6730E3DD-1B24-416B-963B-8536D03899DF}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -3414,6 +3783,326 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A89F29-FBE7-480D-AC22-56354C806ACA}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>46.53</v>
+      </c>
+      <c r="C2">
+        <f>60.084</f>
+        <v>60.084000000000003</v>
+      </c>
+      <c r="D2">
+        <v>60.084000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>79.865</f>
+        <v>79.864999999999995</v>
+      </c>
+      <c r="D3">
+        <v>79.864999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="C4">
+        <f>D4/2</f>
+        <v>50.980499999999999</v>
+      </c>
+      <c r="D4">
+        <v>101.961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>D5/2</f>
+        <v>75.994500000000002</v>
+      </c>
+      <c r="D5">
+        <v>151.989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8.89</v>
+      </c>
+      <c r="C6">
+        <v>71.843999999999994</v>
+      </c>
+      <c r="D6">
+        <v>71.843999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70.936999999999998</v>
+      </c>
+      <c r="D7">
+        <v>70.936999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="C8">
+        <v>40.304000000000002</v>
+      </c>
+      <c r="D8">
+        <v>40.304000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>74.691999999999993</v>
+      </c>
+      <c r="D9">
+        <v>74.691999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3.64</v>
+      </c>
+      <c r="C10">
+        <v>56.076999999999998</v>
+      </c>
+      <c r="D10">
+        <v>56.076999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>D11/2</f>
+        <v>30.986000000000001</v>
+      </c>
+      <c r="D11">
+        <v>61.972000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>D12/2</f>
+        <v>47.097499999999997</v>
+      </c>
+      <c r="D12">
+        <v>94.194999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>D13/2</f>
+        <v>70.971500000000006</v>
+      </c>
+      <c r="D13">
+        <v>141.94300000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E6418D-1121-49F2-BC08-7B9502241B45}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>87.96</v>
+      </c>
+      <c r="C2">
+        <v>55.844999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>6.61</v>
+      </c>
+      <c r="C3">
+        <v>58.692999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>58.933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>4.8</v>
+      </c>
+      <c r="C5">
+        <v>28.085000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0.33</v>
+      </c>
+      <c r="C6">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.52</v>
+      </c>
+      <c r="C7">
+        <v>51.996000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D74315-7BB2-43C4-85AC-12998C31C28C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3544,371 +4233,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D605C485-1DC2-CE40-93E0-F6D4262E732D}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>45.49</v>
-      </c>
-      <c r="C2">
-        <v>60.073499999999996</v>
-      </c>
-      <c r="D2">
-        <v>60.084000000000003</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>79.055000000000007</v>
-      </c>
-      <c r="D3">
-        <v>79.864999999999995</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4.45</v>
-      </c>
-      <c r="C4">
-        <v>50.971000000000004</v>
-      </c>
-      <c r="D4">
-        <v>101.961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>75.986999999999995</v>
-      </c>
-      <c r="D5">
-        <v>151.989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>8.1</v>
-      </c>
-      <c r="C6">
-        <v>71.838999999999999</v>
-      </c>
-      <c r="D6">
-        <v>71.843999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>70.932000000000002</v>
-      </c>
-      <c r="D7">
-        <v>70.936999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="C8">
-        <v>40.298999999999999</v>
-      </c>
-      <c r="D8">
-        <v>40.304000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>58.9634</v>
-      </c>
-      <c r="D9">
-        <v>74.691999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>3.55</v>
-      </c>
-      <c r="C10">
-        <v>56.072000000000003</v>
-      </c>
-      <c r="D10">
-        <v>56.076999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0.36</v>
-      </c>
-      <c r="C11">
-        <v>30.986799999999999</v>
-      </c>
-      <c r="D11">
-        <v>61.972000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C12">
-        <v>47.094999999999999</v>
-      </c>
-      <c r="D12">
-        <v>94.194999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C13">
-        <v>70.959000000000003</v>
-      </c>
-      <c r="D13">
-        <v>141.94300000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F6B0B9-3302-493B-9F61-2729263CC03A}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>57.3</v>
-      </c>
-      <c r="C2">
-        <v>60.073499999999996</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>79.055000000000007</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>14.8</v>
-      </c>
-      <c r="C4">
-        <v>50.971000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>75.986999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>9.4</v>
-      </c>
-      <c r="C6">
-        <v>71.838999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>70.932000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2.1</v>
-      </c>
-      <c r="C8">
-        <v>40.298999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>58.9634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>7.4</v>
-      </c>
-      <c r="C10">
-        <v>56.072000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C11">
-        <v>30.986799999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C12">
-        <v>47.094999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>70.959000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>